--- a/l10n_it_account/static/src/download/tracciato_piano_dei_conti.xlsx
+++ b/l10n_it_account/static/src/download/tracciato_piano_dei_conti.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="L5" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="N4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="N5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0">
+    <comment ref="N6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0">
+    <comment ref="N8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,6 +158,51 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> dell’aggregato a cui appartiene il conto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Inserire il </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">codice </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">del conto di N-esimo livello</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Se = 1 identifica un conto che non ha ulteriori figli.</t>
         </r>
       </text>
     </comment>
@@ -166,10 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">TRACCIATO STANDARD PIANO DEI CONTI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t xml:space="preserve">CODICE</t>
   </si>
@@ -189,7 +231,25 @@
     <t xml:space="preserve">AGGREGATO</t>
   </si>
   <si>
+    <t xml:space="preserve">SOTTOCONTO 3° LIVELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOTTOCONTO 4° LIVELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOTTOCONTO 5° LIVELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOTTOCONTO 6° LIVELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTO NORMALE</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTO N° LIVELLO</t>
   </si>
 </sst>
 </file>
@@ -199,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -222,13 +282,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
@@ -243,18 +296,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -297,16 +344,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -387,117 +430,118 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="M3" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K6" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K9" s="0" t="s">
-        <v>5</v>
+      <c r="M9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K10" s="0" t="s">
-        <v>6</v>
+      <c r="M10" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="K3:M4"/>
+  <mergeCells count="1">
+    <mergeCell ref="M1:O2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
